--- a/Sensor Selection/Sensor Selection Decision Matrix.xlsx
+++ b/Sensor Selection/Sensor Selection Decision Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Sensor Selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C580434-87DA-44EC-AB2D-88BA05087900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929EDB25-56F2-45F7-BC59-82B622940D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +117,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,16 +216,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -226,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -237,6 +246,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -521,7 +532,7 @@
   <dimension ref="H5:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,43 +555,43 @@
     <row r="5" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="8:21" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H6" s="3"/>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="U6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -605,10 +616,10 @@
         <f>L7*I7</f>
         <v>7</v>
       </c>
-      <c r="N7" s="7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
         <f>N7*I7</f>
         <v>7</v>
       </c>
@@ -655,10 +666,10 @@
         <f t="shared" ref="M8:M12" si="1">L8*I8</f>
         <v>5</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
         <f t="shared" ref="O8:O12" si="2">N8*I8</f>
         <v>0</v>
       </c>
@@ -688,10 +699,10 @@
       <c r="H9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>2</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>1</v>
       </c>
       <c r="K9" s="2">
@@ -705,10 +716,10 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N9" s="7">
-        <v>1</v>
-      </c>
-      <c r="O9" s="5">
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -738,10 +749,10 @@
       <c r="H10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>3</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>0</v>
       </c>
       <c r="K10" s="2">
@@ -755,28 +766,28 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="N10" s="7">
-        <v>1</v>
-      </c>
-      <c r="O10" s="5">
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="1">
         <v>0</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="1">
         <v>1</v>
       </c>
       <c r="S10" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="1">
         <v>1</v>
       </c>
       <c r="U10" s="4">
@@ -788,10 +799,10 @@
       <c r="H11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>6</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>1</v>
       </c>
       <c r="K11" s="2">
@@ -805,28 +816,28 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5">
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="1">
         <v>0</v>
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="1">
         <v>1</v>
       </c>
       <c r="S11" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="1">
         <v>0</v>
       </c>
       <c r="U11" s="4">
@@ -838,10 +849,10 @@
       <c r="H12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
         <v>1</v>
       </c>
       <c r="K12" s="2">
@@ -855,28 +866,28 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5">
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="1">
         <v>1</v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="1">
         <v>1</v>
       </c>
       <c r="S12" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="1">
         <v>1</v>
       </c>
       <c r="U12" s="4">
@@ -885,34 +896,34 @@
       </c>
     </row>
     <row r="13" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="6">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="5">
         <f>SUM(K7:K12)</f>
         <v>11</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="6">
+      <c r="L13" s="13"/>
+      <c r="M13" s="16">
         <f>SUM(M7:M12)</f>
         <v>17</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="8">
+      <c r="N13" s="14"/>
+      <c r="O13" s="15">
         <f>SUM(O7:O12)</f>
         <v>19</v>
       </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="8">
+      <c r="P13" s="14"/>
+      <c r="Q13" s="3">
         <f>SUM(Q7:Q12)</f>
         <v>1</v>
       </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="8">
+      <c r="R13" s="14"/>
+      <c r="S13" s="15">
         <f>SUM(S7:S12)</f>
         <v>22</v>
       </c>
-      <c r="T13" s="16"/>
+      <c r="T13" s="13"/>
       <c r="U13" s="3">
         <f>SUM(U7:U12)</f>
         <v>13</v>
